--- a/data_processed/20250627/BTCUSDVOLSURFACE_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDVOLSURFACE_20250627.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -32221,7 +32221,7 @@
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
